--- a/src/students/student_data.xlsx
+++ b/src/students/student_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakob\Desktop\startHack\startHack24\src\students\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ccaspar/Desktop/Code/niatsu/startHack24/src/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D29D53B-6A81-4C8C-8950-CE0EE8884B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF737B0B-F068-6F4B-968A-5863576E7955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0EA9E41C-4D5D-4870-BEB1-83FCC7AF745C}"/>
+    <workbookView xWindow="940" yWindow="500" windowWidth="27860" windowHeight="15720" xr2:uid="{0EA9E41C-4D5D-4870-BEB1-83FCC7AF745C}"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluationen" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -821,21 +832,21 @@
   <dimension ref="A1:J851"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A421" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H423" sqref="H423"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3:N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>134</v>
       </c>
@@ -867,7 +878,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -899,7 +910,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -931,7 +942,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -963,7 +974,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -995,7 +1006,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1027,7 +1038,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1059,7 +1070,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1091,7 +1102,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1123,7 +1134,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1155,7 +1166,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1187,7 +1198,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1219,7 +1230,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1251,7 +1262,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1283,7 +1294,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1315,7 +1326,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1347,7 +1358,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1379,7 +1390,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1411,7 +1422,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1443,7 +1454,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1475,7 +1486,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1507,7 +1518,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1539,7 +1550,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1571,7 +1582,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1603,7 +1614,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1635,7 +1646,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1667,7 +1678,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1699,7 +1710,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1731,7 +1742,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1763,7 +1774,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1795,7 +1806,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1827,7 +1838,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1859,7 +1870,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1891,7 +1902,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1923,7 +1934,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1955,7 +1966,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1987,7 +1998,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -2019,7 +2030,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -2051,7 +2062,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -2083,7 +2094,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -2115,7 +2126,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -2147,7 +2158,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -2179,7 +2190,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -2211,7 +2222,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -2243,7 +2254,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -2275,7 +2286,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -2307,7 +2318,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -2339,7 +2350,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -2371,7 +2382,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -2403,7 +2414,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -2435,7 +2446,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -2467,7 +2478,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -2499,7 +2510,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -2531,7 +2542,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -2563,7 +2574,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -2595,7 +2606,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -2627,7 +2638,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -2659,7 +2670,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -2691,7 +2702,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -2723,7 +2734,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -2755,7 +2766,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -2787,7 +2798,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -2819,7 +2830,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -2851,7 +2862,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -2883,7 +2894,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -2915,7 +2926,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -2947,7 +2958,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -2979,7 +2990,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -3011,7 +3022,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -3043,7 +3054,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -3075,7 +3086,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -3107,7 +3118,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -3139,7 +3150,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -3171,7 +3182,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -3203,7 +3214,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -3235,7 +3246,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -3267,7 +3278,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -3299,7 +3310,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -3331,7 +3342,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -3363,7 +3374,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -3395,7 +3406,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -3427,7 +3438,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -3459,7 +3470,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -3491,7 +3502,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -3523,7 +3534,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -3555,7 +3566,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -3587,7 +3598,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -3616,7 +3627,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -3645,7 +3656,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -3677,7 +3688,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -3709,7 +3720,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -3741,7 +3752,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -3773,7 +3784,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -3805,7 +3816,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -3837,7 +3848,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -3869,7 +3880,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -3901,7 +3912,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -3933,7 +3944,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -3965,7 +3976,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -3997,7 +4008,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -4029,7 +4040,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -4061,7 +4072,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -4093,7 +4104,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -4125,7 +4136,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -4157,7 +4168,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -4189,7 +4200,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -4221,7 +4232,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -4253,7 +4264,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -4285,7 +4296,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -4317,7 +4328,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -4349,7 +4360,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -4381,7 +4392,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -4413,7 +4424,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -4445,7 +4456,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -4477,7 +4488,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -4509,7 +4520,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -4541,7 +4552,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -4573,7 +4584,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -4605,7 +4616,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -4637,7 +4648,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -4669,7 +4680,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -4701,7 +4712,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -4733,7 +4744,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -4765,7 +4776,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -4797,7 +4808,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -4829,7 +4840,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -4861,7 +4872,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -4893,7 +4904,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -4925,7 +4936,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -4957,7 +4968,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -4989,7 +5000,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -5021,7 +5032,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -5053,7 +5064,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -5085,7 +5096,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -5117,7 +5128,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -5149,7 +5160,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -5181,7 +5192,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -5213,7 +5224,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -5245,7 +5256,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -5274,7 +5285,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -5303,7 +5314,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -5335,7 +5346,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -5367,7 +5378,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>0</v>
       </c>
@@ -5399,7 +5410,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -5431,7 +5442,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -5463,7 +5474,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -5495,7 +5506,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -5527,7 +5538,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -5559,7 +5570,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -5591,7 +5602,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -5623,7 +5634,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>0</v>
       </c>
@@ -5655,7 +5666,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>0</v>
       </c>
@@ -5687,7 +5698,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>0</v>
       </c>
@@ -5719,7 +5730,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>0</v>
       </c>
@@ -5751,7 +5762,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -5783,7 +5794,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>0</v>
       </c>
@@ -5815,7 +5826,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>0</v>
       </c>
@@ -5847,7 +5858,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>0</v>
       </c>
@@ -5879,7 +5890,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>0</v>
       </c>
@@ -5911,7 +5922,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>0</v>
       </c>
@@ -5943,7 +5954,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>0</v>
       </c>
@@ -5975,7 +5986,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>0</v>
       </c>
@@ -6007,7 +6018,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -6039,7 +6050,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>0</v>
       </c>
@@ -6071,7 +6082,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>0</v>
       </c>
@@ -6103,7 +6114,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>0</v>
       </c>
@@ -6135,7 +6146,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>0</v>
       </c>
@@ -6167,7 +6178,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>0</v>
       </c>
@@ -6199,7 +6210,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -6231,7 +6242,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>0</v>
       </c>
@@ -6263,7 +6274,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>0</v>
       </c>
@@ -6295,7 +6306,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>0</v>
       </c>
@@ -6327,7 +6338,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>0</v>
       </c>
@@ -6359,7 +6370,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -6391,7 +6402,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>0</v>
       </c>
@@ -6423,7 +6434,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>0</v>
       </c>
@@ -6455,7 +6466,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>0</v>
       </c>
@@ -6487,7 +6498,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>0</v>
       </c>
@@ -6519,7 +6530,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>0</v>
       </c>
@@ -6551,7 +6562,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>0</v>
       </c>
@@ -6583,7 +6594,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>0</v>
       </c>
@@ -6615,7 +6626,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>0</v>
       </c>
@@ -6647,7 +6658,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>0</v>
       </c>
@@ -6679,7 +6690,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>0</v>
       </c>
@@ -6711,7 +6722,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>0</v>
       </c>
@@ -6743,7 +6754,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>0</v>
       </c>
@@ -6775,7 +6786,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>0</v>
       </c>
@@ -6807,7 +6818,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>0</v>
       </c>
@@ -6839,7 +6850,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>0</v>
       </c>
@@ -6871,7 +6882,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>0</v>
       </c>
@@ -6903,7 +6914,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>0</v>
       </c>
@@ -6935,7 +6946,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>0</v>
       </c>
@@ -6967,7 +6978,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>0</v>
       </c>
@@ -6999,7 +7010,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>0</v>
       </c>
@@ -7031,7 +7042,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>0</v>
       </c>
@@ -7063,7 +7074,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>0</v>
       </c>
@@ -7095,7 +7106,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>0</v>
       </c>
@@ -7127,7 +7138,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>0</v>
       </c>
@@ -7159,7 +7170,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>0</v>
       </c>
@@ -7191,7 +7202,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>0</v>
       </c>
@@ -7223,7 +7234,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>0</v>
       </c>
@@ -7255,7 +7266,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>0</v>
       </c>
@@ -7287,7 +7298,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>0</v>
       </c>
@@ -7319,7 +7330,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>0</v>
       </c>
@@ -7351,7 +7362,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>0</v>
       </c>
@@ -7383,7 +7394,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>0</v>
       </c>
@@ -7415,7 +7426,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>0</v>
       </c>
@@ -7447,7 +7458,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>0</v>
       </c>
@@ -7479,7 +7490,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>0</v>
       </c>
@@ -7511,7 +7522,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>0</v>
       </c>
@@ -7543,7 +7554,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>0</v>
       </c>
@@ -7575,7 +7586,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>0</v>
       </c>
@@ -7607,7 +7618,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>0</v>
       </c>
@@ -7639,7 +7650,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>0</v>
       </c>
@@ -7671,7 +7682,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>0</v>
       </c>
@@ -7703,7 +7714,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>0</v>
       </c>
@@ -7735,7 +7746,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>0</v>
       </c>
@@ -7767,7 +7778,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>0</v>
       </c>
@@ -7799,7 +7810,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>0</v>
       </c>
@@ -7831,7 +7842,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>0</v>
       </c>
@@ -7863,7 +7874,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>0</v>
       </c>
@@ -7895,7 +7906,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>0</v>
       </c>
@@ -7927,7 +7938,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>0</v>
       </c>
@@ -7959,7 +7970,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>0</v>
       </c>
@@ -7991,7 +8002,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>0</v>
       </c>
@@ -8023,7 +8034,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>0</v>
       </c>
@@ -8055,7 +8066,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>0</v>
       </c>
@@ -8087,7 +8098,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>0</v>
       </c>
@@ -8119,7 +8130,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>0</v>
       </c>
@@ -8151,7 +8162,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>0</v>
       </c>
@@ -8183,7 +8194,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>0</v>
       </c>
@@ -8215,7 +8226,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>0</v>
       </c>
@@ -8247,7 +8258,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>0</v>
       </c>
@@ -8279,7 +8290,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>0</v>
       </c>
@@ -8311,7 +8322,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>0</v>
       </c>
@@ -8343,7 +8354,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>0</v>
       </c>
@@ -8375,7 +8386,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>0</v>
       </c>
@@ -8407,7 +8418,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>0</v>
       </c>
@@ -8439,7 +8450,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>0</v>
       </c>
@@ -8471,7 +8482,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>0</v>
       </c>
@@ -8503,7 +8514,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>0</v>
       </c>
@@ -8535,7 +8546,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>0</v>
       </c>
@@ -8567,7 +8578,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>0</v>
       </c>
@@ -8599,7 +8610,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>0</v>
       </c>
@@ -8631,7 +8642,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
         <v>0</v>
       </c>
@@ -8663,7 +8674,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>0</v>
       </c>
@@ -8695,7 +8706,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>0</v>
       </c>
@@ -8727,7 +8738,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>0</v>
       </c>
@@ -8759,7 +8770,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>0</v>
       </c>
@@ -8791,7 +8802,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
         <v>0</v>
       </c>
@@ -8823,7 +8834,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
         <v>0</v>
       </c>
@@ -8855,7 +8866,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
         <v>0</v>
       </c>
@@ -8887,7 +8898,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
         <v>0</v>
       </c>
@@ -8919,7 +8930,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
         <v>0</v>
       </c>
@@ -8951,7 +8962,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
         <v>0</v>
       </c>
@@ -8983,7 +8994,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
         <v>0</v>
       </c>
@@ -9015,7 +9026,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
         <v>0</v>
       </c>
@@ -9047,7 +9058,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
         <v>0</v>
       </c>
@@ -9079,7 +9090,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
         <v>0</v>
       </c>
@@ -9111,7 +9122,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
         <v>0</v>
       </c>
@@ -9143,7 +9154,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
         <v>0</v>
       </c>
@@ -9175,7 +9186,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
         <v>0</v>
       </c>
@@ -9207,7 +9218,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
         <v>0</v>
       </c>
@@ -9239,7 +9250,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
         <v>0</v>
       </c>
@@ -9271,7 +9282,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
         <v>0</v>
       </c>
@@ -9303,7 +9314,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
         <v>0</v>
       </c>
@@ -9335,7 +9346,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
         <v>0</v>
       </c>
@@ -9367,7 +9378,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
         <v>0</v>
       </c>
@@ -9399,7 +9410,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
         <v>0</v>
       </c>
@@ -9431,7 +9442,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
         <v>0</v>
       </c>
@@ -9463,7 +9474,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
         <v>0</v>
       </c>
@@ -9495,7 +9506,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
         <v>0</v>
       </c>
@@ -9527,7 +9538,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
         <v>0</v>
       </c>
@@ -9559,7 +9570,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
         <v>0</v>
       </c>
@@ -9591,7 +9602,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
         <v>0</v>
       </c>
@@ -9623,7 +9634,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
         <v>0</v>
       </c>
@@ -9655,7 +9666,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
         <v>0</v>
       </c>
@@ -9687,7 +9698,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
         <v>0</v>
       </c>
@@ -9719,7 +9730,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
         <v>0</v>
       </c>
@@ -9751,7 +9762,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
         <v>0</v>
       </c>
@@ -9783,7 +9794,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
         <v>0</v>
       </c>
@@ -9815,7 +9826,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
         <v>0</v>
       </c>
@@ -9847,7 +9858,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
         <v>0</v>
       </c>
@@ -9879,7 +9890,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
         <v>0</v>
       </c>
@@ -9911,7 +9922,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
         <v>0</v>
       </c>
@@ -9943,7 +9954,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
         <v>0</v>
       </c>
@@ -9975,7 +9986,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
         <v>0</v>
       </c>
@@ -10007,7 +10018,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
         <v>0</v>
       </c>
@@ -10039,7 +10050,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
         <v>0</v>
       </c>
@@ -10071,7 +10082,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
         <v>0</v>
       </c>
@@ -10103,7 +10114,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
         <v>0</v>
       </c>
@@ -10135,7 +10146,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
         <v>0</v>
       </c>
@@ -10167,7 +10178,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
         <v>0</v>
       </c>
@@ -10199,7 +10210,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
         <v>0</v>
       </c>
@@ -10231,7 +10242,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
         <v>0</v>
       </c>
@@ -10263,7 +10274,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
         <v>0</v>
       </c>
@@ -10295,7 +10306,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
         <v>0</v>
       </c>
@@ -10327,7 +10338,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
         <v>0</v>
       </c>
@@ -10359,7 +10370,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
         <v>0</v>
       </c>
@@ -10391,7 +10402,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
         <v>0</v>
       </c>
@@ -10423,7 +10434,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
         <v>0</v>
       </c>
@@ -10455,7 +10466,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
         <v>0</v>
       </c>
@@ -10487,7 +10498,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
         <v>0</v>
       </c>
@@ -10519,7 +10530,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
         <v>0</v>
       </c>
@@ -10551,7 +10562,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
         <v>0</v>
       </c>
@@ -10583,7 +10594,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
         <v>0</v>
       </c>
@@ -10615,7 +10626,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
         <v>0</v>
       </c>
@@ -10647,7 +10658,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
         <v>0</v>
       </c>
@@ -10679,7 +10690,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
         <v>0</v>
       </c>
@@ -10711,7 +10722,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
         <v>0</v>
       </c>
@@ -10743,7 +10754,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
         <v>0</v>
       </c>
@@ -10775,7 +10786,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
         <v>0</v>
       </c>
@@ -10807,7 +10818,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
         <v>0</v>
       </c>
@@ -10839,7 +10850,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
         <v>0</v>
       </c>
@@ -10871,7 +10882,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
         <v>0</v>
       </c>
@@ -10903,7 +10914,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
         <v>0</v>
       </c>
@@ -10935,7 +10946,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
         <v>0</v>
       </c>
@@ -10967,7 +10978,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
         <v>0</v>
       </c>
@@ -10999,7 +11010,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
         <v>0</v>
       </c>
@@ -11031,7 +11042,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
         <v>0</v>
       </c>
@@ -11063,7 +11074,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
         <v>0</v>
       </c>
@@ -11095,7 +11106,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
         <v>0</v>
       </c>
@@ -11127,7 +11138,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
         <v>0</v>
       </c>
@@ -11159,7 +11170,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
         <v>0</v>
       </c>
@@ -11191,7 +11202,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
         <v>0</v>
       </c>
@@ -11223,7 +11234,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
         <v>0</v>
       </c>
@@ -11255,7 +11266,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
         <v>0</v>
       </c>
@@ -11287,7 +11298,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
         <v>0</v>
       </c>
@@ -11319,7 +11330,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
         <v>0</v>
       </c>
@@ -11351,7 +11362,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
         <v>0</v>
       </c>
@@ -11383,7 +11394,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
         <v>0</v>
       </c>
@@ -11415,7 +11426,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
         <v>0</v>
       </c>
@@ -11447,7 +11458,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
         <v>0</v>
       </c>
@@ -11479,7 +11490,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
         <v>0</v>
       </c>
@@ -11511,7 +11522,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
         <v>0</v>
       </c>
@@ -11543,7 +11554,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
         <v>0</v>
       </c>
@@ -11575,7 +11586,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
         <v>0</v>
       </c>
@@ -11607,7 +11618,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
         <v>0</v>
       </c>
@@ -11639,7 +11650,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
         <v>0</v>
       </c>
@@ -11671,7 +11682,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
         <v>0</v>
       </c>
@@ -11703,7 +11714,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
         <v>0</v>
       </c>
@@ -11735,7 +11746,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
         <v>0</v>
       </c>
@@ -11767,7 +11778,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
         <v>0</v>
       </c>
@@ -11799,7 +11810,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
         <v>0</v>
       </c>
@@ -11831,7 +11842,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A345" t="s">
         <v>0</v>
       </c>
@@ -11863,7 +11874,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A346" t="s">
         <v>0</v>
       </c>
@@ -11895,7 +11906,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
         <v>0</v>
       </c>
@@ -11927,7 +11938,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
         <v>0</v>
       </c>
@@ -11959,7 +11970,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
         <v>0</v>
       </c>
@@ -11991,7 +12002,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
         <v>0</v>
       </c>
@@ -12023,7 +12034,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
         <v>0</v>
       </c>
@@ -12055,7 +12066,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
         <v>0</v>
       </c>
@@ -12087,7 +12098,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
         <v>0</v>
       </c>
@@ -12119,7 +12130,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
         <v>0</v>
       </c>
@@ -12151,7 +12162,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
         <v>0</v>
       </c>
@@ -12183,7 +12194,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
         <v>0</v>
       </c>
@@ -12215,7 +12226,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
         <v>0</v>
       </c>
@@ -12247,7 +12258,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A358" t="s">
         <v>0</v>
       </c>
@@ -12279,7 +12290,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A359" t="s">
         <v>0</v>
       </c>
@@ -12311,7 +12322,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A360" t="s">
         <v>0</v>
       </c>
@@ -12343,7 +12354,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A361" t="s">
         <v>0</v>
       </c>
@@ -12375,7 +12386,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A362" t="s">
         <v>0</v>
       </c>
@@ -12407,7 +12418,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A363" t="s">
         <v>0</v>
       </c>
@@ -12439,7 +12450,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A364" t="s">
         <v>0</v>
       </c>
@@ -12471,7 +12482,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A365" t="s">
         <v>0</v>
       </c>
@@ -12503,7 +12514,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A366" t="s">
         <v>0</v>
       </c>
@@ -12535,7 +12546,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A367" t="s">
         <v>0</v>
       </c>
@@ -12567,7 +12578,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A368" t="s">
         <v>0</v>
       </c>
@@ -12599,7 +12610,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A369" t="s">
         <v>0</v>
       </c>
@@ -12631,7 +12642,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A370" t="s">
         <v>0</v>
       </c>
@@ -12663,7 +12674,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A371" t="s">
         <v>0</v>
       </c>
@@ -12695,7 +12706,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A372" t="s">
         <v>0</v>
       </c>
@@ -12727,7 +12738,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A373" t="s">
         <v>0</v>
       </c>
@@ -12759,7 +12770,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A374" t="s">
         <v>0</v>
       </c>
@@ -12791,7 +12802,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A375" t="s">
         <v>0</v>
       </c>
@@ -12823,7 +12834,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A376" t="s">
         <v>0</v>
       </c>
@@ -12855,7 +12866,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A377" t="s">
         <v>0</v>
       </c>
@@ -12887,7 +12898,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A378" t="s">
         <v>0</v>
       </c>
@@ -12919,7 +12930,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A379" t="s">
         <v>0</v>
       </c>
@@ -12951,7 +12962,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A380" t="s">
         <v>0</v>
       </c>
@@ -12983,7 +12994,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A381" t="s">
         <v>0</v>
       </c>
@@ -13015,7 +13026,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A382" t="s">
         <v>0</v>
       </c>
@@ -13047,7 +13058,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A383" t="s">
         <v>0</v>
       </c>
@@ -13079,7 +13090,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A384" t="s">
         <v>0</v>
       </c>
@@ -13111,7 +13122,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A385" t="s">
         <v>0</v>
       </c>
@@ -13143,7 +13154,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A386" t="s">
         <v>0</v>
       </c>
@@ -13175,7 +13186,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A387" t="s">
         <v>0</v>
       </c>
@@ -13207,7 +13218,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A388" t="s">
         <v>0</v>
       </c>
@@ -13239,7 +13250,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A389" t="s">
         <v>0</v>
       </c>
@@ -13271,7 +13282,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A390" t="s">
         <v>0</v>
       </c>
@@ -13303,7 +13314,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A391" t="s">
         <v>0</v>
       </c>
@@ -13335,7 +13346,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A392" t="s">
         <v>0</v>
       </c>
@@ -13367,7 +13378,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A393" t="s">
         <v>0</v>
       </c>
@@ -13399,7 +13410,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A394" t="s">
         <v>0</v>
       </c>
@@ -13431,7 +13442,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A395" t="s">
         <v>0</v>
       </c>
@@ -13463,7 +13474,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A396" t="s">
         <v>0</v>
       </c>
@@ -13495,7 +13506,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A397" t="s">
         <v>0</v>
       </c>
@@ -13527,7 +13538,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A398" t="s">
         <v>0</v>
       </c>
@@ -13559,7 +13570,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A399" t="s">
         <v>0</v>
       </c>
@@ -13591,7 +13602,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A400" t="s">
         <v>0</v>
       </c>
@@ -13623,7 +13634,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A401" t="s">
         <v>0</v>
       </c>
@@ -13655,7 +13666,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A402" t="s">
         <v>0</v>
       </c>
@@ -13687,7 +13698,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A403" t="s">
         <v>0</v>
       </c>
@@ -13719,7 +13730,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A404" t="s">
         <v>0</v>
       </c>
@@ -13751,7 +13762,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A405" t="s">
         <v>0</v>
       </c>
@@ -13783,7 +13794,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A406" t="s">
         <v>0</v>
       </c>
@@ -13815,7 +13826,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A407" t="s">
         <v>0</v>
       </c>
@@ -13847,7 +13858,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A408" t="s">
         <v>0</v>
       </c>
@@ -13879,7 +13890,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A409" t="s">
         <v>0</v>
       </c>
@@ -13911,7 +13922,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A410" t="s">
         <v>0</v>
       </c>
@@ -13943,7 +13954,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A411" t="s">
         <v>0</v>
       </c>
@@ -13975,7 +13986,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A412" t="s">
         <v>0</v>
       </c>
@@ -14007,7 +14018,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A413" t="s">
         <v>0</v>
       </c>
@@ -14039,7 +14050,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A414" t="s">
         <v>0</v>
       </c>
@@ -14071,7 +14082,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A415" t="s">
         <v>0</v>
       </c>
@@ -14103,7 +14114,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A416" t="s">
         <v>0</v>
       </c>
@@ -14135,7 +14146,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A417" t="s">
         <v>0</v>
       </c>
@@ -14167,7 +14178,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A418" t="s">
         <v>0</v>
       </c>
@@ -14199,7 +14210,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A419" t="s">
         <v>0</v>
       </c>
@@ -14231,7 +14242,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A420" t="s">
         <v>0</v>
       </c>
@@ -14263,7 +14274,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A421" t="s">
         <v>0</v>
       </c>
@@ -14295,7 +14306,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A422" t="s">
         <v>0</v>
       </c>
@@ -14327,7 +14338,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A423" t="s">
         <v>0</v>
       </c>
@@ -14359,7 +14370,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A424" t="s">
         <v>0</v>
       </c>
@@ -14391,7 +14402,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A425" t="s">
         <v>0</v>
       </c>
@@ -14423,7 +14434,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A426" t="s">
         <v>0</v>
       </c>
@@ -14455,7 +14466,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A427" t="s">
         <v>1</v>
       </c>
@@ -14487,7 +14498,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A428" t="s">
         <v>1</v>
       </c>
@@ -14519,7 +14530,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A429" t="s">
         <v>1</v>
       </c>
@@ -14551,7 +14562,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A430" t="s">
         <v>1</v>
       </c>
@@ -14583,7 +14594,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A431" t="s">
         <v>1</v>
       </c>
@@ -14615,7 +14626,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A432" t="s">
         <v>1</v>
       </c>
@@ -14647,7 +14658,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A433" t="s">
         <v>1</v>
       </c>
@@ -14679,7 +14690,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A434" t="s">
         <v>1</v>
       </c>
@@ -14711,7 +14722,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A435" t="s">
         <v>1</v>
       </c>
@@ -14743,7 +14754,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A436" t="s">
         <v>1</v>
       </c>
@@ -14775,7 +14786,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A437" t="s">
         <v>1</v>
       </c>
@@ -14807,7 +14818,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A438" t="s">
         <v>1</v>
       </c>
@@ -14839,7 +14850,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A439" t="s">
         <v>1</v>
       </c>
@@ -14871,7 +14882,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A440" t="s">
         <v>1</v>
       </c>
@@ -14903,7 +14914,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A441" t="s">
         <v>1</v>
       </c>
@@ -14935,7 +14946,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A442" t="s">
         <v>1</v>
       </c>
@@ -14967,7 +14978,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A443" t="s">
         <v>1</v>
       </c>
@@ -14999,7 +15010,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A444" t="s">
         <v>1</v>
       </c>
@@ -15031,7 +15042,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A445" t="s">
         <v>1</v>
       </c>
@@ -15063,7 +15074,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A446" t="s">
         <v>1</v>
       </c>
@@ -15095,7 +15106,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A447" t="s">
         <v>1</v>
       </c>
@@ -15127,7 +15138,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A448" t="s">
         <v>1</v>
       </c>
@@ -15159,7 +15170,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A449" t="s">
         <v>1</v>
       </c>
@@ -15191,7 +15202,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A450" t="s">
         <v>1</v>
       </c>
@@ -15223,7 +15234,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A451" t="s">
         <v>1</v>
       </c>
@@ -15255,7 +15266,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A452" t="s">
         <v>1</v>
       </c>
@@ -15287,7 +15298,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A453" t="s">
         <v>1</v>
       </c>
@@ -15319,7 +15330,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A454" t="s">
         <v>1</v>
       </c>
@@ -15351,7 +15362,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A455" t="s">
         <v>1</v>
       </c>
@@ -15383,7 +15394,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A456" t="s">
         <v>1</v>
       </c>
@@ -15415,7 +15426,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A457" t="s">
         <v>1</v>
       </c>
@@ -15447,7 +15458,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A458" t="s">
         <v>1</v>
       </c>
@@ -15479,7 +15490,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A459" t="s">
         <v>1</v>
       </c>
@@ -15511,7 +15522,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A460" t="s">
         <v>1</v>
       </c>
@@ -15543,7 +15554,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A461" t="s">
         <v>1</v>
       </c>
@@ -15575,7 +15586,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A462" t="s">
         <v>1</v>
       </c>
@@ -15607,7 +15618,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A463" t="s">
         <v>1</v>
       </c>
@@ -15639,7 +15650,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A464" t="s">
         <v>1</v>
       </c>
@@ -15671,7 +15682,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A465" t="s">
         <v>1</v>
       </c>
@@ -15703,7 +15714,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A466" t="s">
         <v>1</v>
       </c>
@@ -15735,7 +15746,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A467" t="s">
         <v>1</v>
       </c>
@@ -15767,7 +15778,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A468" t="s">
         <v>1</v>
       </c>
@@ -15799,7 +15810,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A469" t="s">
         <v>1</v>
       </c>
@@ -15831,7 +15842,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A470" t="s">
         <v>1</v>
       </c>
@@ -15863,7 +15874,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A471" t="s">
         <v>1</v>
       </c>
@@ -15895,7 +15906,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A472" t="s">
         <v>1</v>
       </c>
@@ -15927,7 +15938,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A473" t="s">
         <v>1</v>
       </c>
@@ -15959,7 +15970,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A474" t="s">
         <v>1</v>
       </c>
@@ -15991,7 +16002,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A475" t="s">
         <v>1</v>
       </c>
@@ -16023,7 +16034,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A476" t="s">
         <v>1</v>
       </c>
@@ -16055,7 +16066,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A477" t="s">
         <v>1</v>
       </c>
@@ -16087,7 +16098,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A478" t="s">
         <v>1</v>
       </c>
@@ -16119,7 +16130,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A479" t="s">
         <v>1</v>
       </c>
@@ -16151,7 +16162,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A480" t="s">
         <v>1</v>
       </c>
@@ -16183,7 +16194,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A481" t="s">
         <v>1</v>
       </c>
@@ -16215,7 +16226,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A482" t="s">
         <v>1</v>
       </c>
@@ -16247,7 +16258,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A483" t="s">
         <v>1</v>
       </c>
@@ -16279,7 +16290,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A484" t="s">
         <v>1</v>
       </c>
@@ -16311,7 +16322,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A485" t="s">
         <v>1</v>
       </c>
@@ -16343,7 +16354,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A486" t="s">
         <v>1</v>
       </c>
@@ -16375,7 +16386,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A487" t="s">
         <v>1</v>
       </c>
@@ -16407,7 +16418,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A488" t="s">
         <v>1</v>
       </c>
@@ -16439,7 +16450,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A489" t="s">
         <v>1</v>
       </c>
@@ -16471,7 +16482,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A490" t="s">
         <v>1</v>
       </c>
@@ -16503,7 +16514,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A491" t="s">
         <v>1</v>
       </c>
@@ -16535,7 +16546,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A492" t="s">
         <v>1</v>
       </c>
@@ -16567,7 +16578,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A493" t="s">
         <v>1</v>
       </c>
@@ -16599,7 +16610,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A494" t="s">
         <v>1</v>
       </c>
@@ -16631,7 +16642,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A495" t="s">
         <v>1</v>
       </c>
@@ -16663,7 +16674,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A496" t="s">
         <v>1</v>
       </c>
@@ -16695,7 +16706,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A497" t="s">
         <v>1</v>
       </c>
@@ -16727,7 +16738,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A498" t="s">
         <v>1</v>
       </c>
@@ -16759,7 +16770,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A499" t="s">
         <v>1</v>
       </c>
@@ -16791,7 +16802,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A500" t="s">
         <v>1</v>
       </c>
@@ -16823,7 +16834,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A501" t="s">
         <v>1</v>
       </c>
@@ -16855,7 +16866,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A502" t="s">
         <v>1</v>
       </c>
@@ -16887,7 +16898,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A503" t="s">
         <v>1</v>
       </c>
@@ -16919,7 +16930,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A504" t="s">
         <v>1</v>
       </c>
@@ -16951,7 +16962,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A505" t="s">
         <v>1</v>
       </c>
@@ -16983,7 +16994,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A506" t="s">
         <v>1</v>
       </c>
@@ -17015,7 +17026,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A507" t="s">
         <v>1</v>
       </c>
@@ -17047,7 +17058,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A508" t="s">
         <v>1</v>
       </c>
@@ -17079,7 +17090,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A509" t="s">
         <v>1</v>
       </c>
@@ -17111,7 +17122,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A510" t="s">
         <v>1</v>
       </c>
@@ -17143,7 +17154,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A511" t="s">
         <v>1</v>
       </c>
@@ -17175,7 +17186,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A512" t="s">
         <v>1</v>
       </c>
@@ -17207,7 +17218,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A513" t="s">
         <v>1</v>
       </c>
@@ -17239,7 +17250,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A514" t="s">
         <v>1</v>
       </c>
@@ -17271,7 +17282,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A515" t="s">
         <v>1</v>
       </c>
@@ -17303,7 +17314,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A516" t="s">
         <v>1</v>
       </c>
@@ -17335,7 +17346,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A517" t="s">
         <v>1</v>
       </c>
@@ -17367,7 +17378,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A518" t="s">
         <v>1</v>
       </c>
@@ -17399,7 +17410,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A519" t="s">
         <v>1</v>
       </c>
@@ -17431,7 +17442,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A520" t="s">
         <v>1</v>
       </c>
@@ -17463,7 +17474,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A521" t="s">
         <v>1</v>
       </c>
@@ -17495,7 +17506,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A522" t="s">
         <v>1</v>
       </c>
@@ -17527,7 +17538,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A523" t="s">
         <v>1</v>
       </c>
@@ -17559,7 +17570,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A524" t="s">
         <v>1</v>
       </c>
@@ -17591,7 +17602,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A525" t="s">
         <v>1</v>
       </c>
@@ -17623,7 +17634,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A526" t="s">
         <v>1</v>
       </c>
@@ -17655,7 +17666,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A527" t="s">
         <v>1</v>
       </c>
@@ -17687,7 +17698,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A528" t="s">
         <v>1</v>
       </c>
@@ -17719,7 +17730,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A529" t="s">
         <v>1</v>
       </c>
@@ -17751,7 +17762,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A530" t="s">
         <v>1</v>
       </c>
@@ -17783,7 +17794,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A531" t="s">
         <v>1</v>
       </c>
@@ -17815,7 +17826,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A532" t="s">
         <v>1</v>
       </c>
@@ -17847,7 +17858,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A533" t="s">
         <v>1</v>
       </c>
@@ -17879,7 +17890,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A534" t="s">
         <v>1</v>
       </c>
@@ -17911,7 +17922,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A535" t="s">
         <v>1</v>
       </c>
@@ -17943,7 +17954,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A536" t="s">
         <v>1</v>
       </c>
@@ -17975,7 +17986,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A537" t="s">
         <v>1</v>
       </c>
@@ -18007,7 +18018,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A538" t="s">
         <v>1</v>
       </c>
@@ -18039,7 +18050,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A539" t="s">
         <v>1</v>
       </c>
@@ -18071,7 +18082,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A540" t="s">
         <v>1</v>
       </c>
@@ -18103,7 +18114,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A541" t="s">
         <v>1</v>
       </c>
@@ -18135,7 +18146,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A542" t="s">
         <v>1</v>
       </c>
@@ -18167,7 +18178,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A543" t="s">
         <v>1</v>
       </c>
@@ -18199,7 +18210,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A544" t="s">
         <v>1</v>
       </c>
@@ -18231,7 +18242,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A545" t="s">
         <v>1</v>
       </c>
@@ -18263,7 +18274,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A546" t="s">
         <v>1</v>
       </c>
@@ -18295,7 +18306,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A547" t="s">
         <v>1</v>
       </c>
@@ -18327,7 +18338,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A548" t="s">
         <v>1</v>
       </c>
@@ -18359,7 +18370,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A549" t="s">
         <v>1</v>
       </c>
@@ -18391,7 +18402,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A550" t="s">
         <v>1</v>
       </c>
@@ -18423,7 +18434,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A551" t="s">
         <v>1</v>
       </c>
@@ -18455,7 +18466,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A552" t="s">
         <v>1</v>
       </c>
@@ -18487,7 +18498,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A553" t="s">
         <v>1</v>
       </c>
@@ -18519,7 +18530,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A554" t="s">
         <v>1</v>
       </c>
@@ -18551,7 +18562,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A555" t="s">
         <v>1</v>
       </c>
@@ -18583,7 +18594,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A556" t="s">
         <v>1</v>
       </c>
@@ -18615,7 +18626,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A557" t="s">
         <v>1</v>
       </c>
@@ -18647,7 +18658,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A558" t="s">
         <v>1</v>
       </c>
@@ -18679,7 +18690,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A559" t="s">
         <v>1</v>
       </c>
@@ -18711,7 +18722,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A560" t="s">
         <v>1</v>
       </c>
@@ -18743,7 +18754,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A561" t="s">
         <v>1</v>
       </c>
@@ -18775,7 +18786,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A562" t="s">
         <v>1</v>
       </c>
@@ -18807,7 +18818,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A563" t="s">
         <v>1</v>
       </c>
@@ -18839,7 +18850,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A564" t="s">
         <v>1</v>
       </c>
@@ -18871,7 +18882,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A565" t="s">
         <v>1</v>
       </c>
@@ -18903,7 +18914,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A566" t="s">
         <v>1</v>
       </c>
@@ -18935,7 +18946,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A567" t="s">
         <v>1</v>
       </c>
@@ -18967,7 +18978,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A568" t="s">
         <v>1</v>
       </c>
@@ -18999,7 +19010,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A569" t="s">
         <v>1</v>
       </c>
@@ -19031,7 +19042,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A570" t="s">
         <v>1</v>
       </c>
@@ -19063,7 +19074,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A571" t="s">
         <v>1</v>
       </c>
@@ -19095,7 +19106,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A572" t="s">
         <v>1</v>
       </c>
@@ -19127,7 +19138,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A573" t="s">
         <v>1</v>
       </c>
@@ -19159,7 +19170,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A574" t="s">
         <v>1</v>
       </c>
@@ -19191,7 +19202,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A575" t="s">
         <v>1</v>
       </c>
@@ -19223,7 +19234,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A576" t="s">
         <v>1</v>
       </c>
@@ -19255,7 +19266,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A577" t="s">
         <v>1</v>
       </c>
@@ -19287,7 +19298,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A578" t="s">
         <v>1</v>
       </c>
@@ -19319,7 +19330,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A579" t="s">
         <v>1</v>
       </c>
@@ -19351,7 +19362,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A580" t="s">
         <v>1</v>
       </c>
@@ -19383,7 +19394,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A581" t="s">
         <v>1</v>
       </c>
@@ -19415,7 +19426,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A582" t="s">
         <v>1</v>
       </c>
@@ -19447,7 +19458,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A583" t="s">
         <v>1</v>
       </c>
@@ -19479,7 +19490,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A584" t="s">
         <v>1</v>
       </c>
@@ -19511,7 +19522,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A585" t="s">
         <v>1</v>
       </c>
@@ -19543,7 +19554,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A586" t="s">
         <v>1</v>
       </c>
@@ -19575,7 +19586,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A587" t="s">
         <v>1</v>
       </c>
@@ -19607,7 +19618,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A588" t="s">
         <v>1</v>
       </c>
@@ -19639,7 +19650,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A589" t="s">
         <v>1</v>
       </c>
@@ -19671,7 +19682,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A590" t="s">
         <v>1</v>
       </c>
@@ -19703,7 +19714,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A591" t="s">
         <v>1</v>
       </c>
@@ -19735,7 +19746,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A592" t="s">
         <v>1</v>
       </c>
@@ -19767,7 +19778,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A593" t="s">
         <v>1</v>
       </c>
@@ -19799,7 +19810,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A594" t="s">
         <v>1</v>
       </c>
@@ -19831,7 +19842,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A595" t="s">
         <v>1</v>
       </c>
@@ -19863,7 +19874,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A596" t="s">
         <v>1</v>
       </c>
@@ -19895,7 +19906,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A597" t="s">
         <v>1</v>
       </c>
@@ -19927,7 +19938,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A598" t="s">
         <v>1</v>
       </c>
@@ -19959,7 +19970,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A599" t="s">
         <v>1</v>
       </c>
@@ -19991,7 +20002,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A600" t="s">
         <v>1</v>
       </c>
@@ -20023,7 +20034,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A601" t="s">
         <v>1</v>
       </c>
@@ -20055,7 +20066,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A602" t="s">
         <v>1</v>
       </c>
@@ -20087,7 +20098,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A603" t="s">
         <v>1</v>
       </c>
@@ -20119,7 +20130,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A604" t="s">
         <v>1</v>
       </c>
@@ -20151,7 +20162,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A605" t="s">
         <v>1</v>
       </c>
@@ -20183,7 +20194,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A606" t="s">
         <v>1</v>
       </c>
@@ -20215,7 +20226,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A607" t="s">
         <v>1</v>
       </c>
@@ -20247,7 +20258,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A608" t="s">
         <v>1</v>
       </c>
@@ -20279,7 +20290,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A609" t="s">
         <v>1</v>
       </c>
@@ -20311,7 +20322,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A610" t="s">
         <v>1</v>
       </c>
@@ -20343,7 +20354,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A611" t="s">
         <v>1</v>
       </c>
@@ -20375,7 +20386,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A612" t="s">
         <v>1</v>
       </c>
@@ -20407,7 +20418,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A613" t="s">
         <v>1</v>
       </c>
@@ -20439,7 +20450,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A614" t="s">
         <v>1</v>
       </c>
@@ -20471,7 +20482,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A615" t="s">
         <v>1</v>
       </c>
@@ -20503,7 +20514,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A616" t="s">
         <v>1</v>
       </c>
@@ -20535,7 +20546,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A617" t="s">
         <v>1</v>
       </c>
@@ -20567,7 +20578,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="618" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A618" t="s">
         <v>1</v>
       </c>
@@ -20599,7 +20610,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="619" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A619" t="s">
         <v>1</v>
       </c>
@@ -20631,7 +20642,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A620" t="s">
         <v>1</v>
       </c>
@@ -20663,7 +20674,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A621" t="s">
         <v>1</v>
       </c>
@@ -20695,7 +20706,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A622" t="s">
         <v>1</v>
       </c>
@@ -20727,7 +20738,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="623" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A623" t="s">
         <v>1</v>
       </c>
@@ -20759,7 +20770,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A624" t="s">
         <v>1</v>
       </c>
@@ -20791,7 +20802,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A625" t="s">
         <v>1</v>
       </c>
@@ -20823,7 +20834,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A626" t="s">
         <v>1</v>
       </c>
@@ -20855,7 +20866,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A627" t="s">
         <v>1</v>
       </c>
@@ -20887,7 +20898,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A628" t="s">
         <v>1</v>
       </c>
@@ -20919,7 +20930,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A629" t="s">
         <v>1</v>
       </c>
@@ -20951,7 +20962,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A630" t="s">
         <v>1</v>
       </c>
@@ -20983,7 +20994,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A631" t="s">
         <v>1</v>
       </c>
@@ -21015,7 +21026,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A632" t="s">
         <v>1</v>
       </c>
@@ -21047,7 +21058,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A633" t="s">
         <v>1</v>
       </c>
@@ -21079,7 +21090,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A634" t="s">
         <v>1</v>
       </c>
@@ -21111,7 +21122,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A635" t="s">
         <v>1</v>
       </c>
@@ -21143,7 +21154,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A636" t="s">
         <v>1</v>
       </c>
@@ -21175,7 +21186,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A637" t="s">
         <v>1</v>
       </c>
@@ -21207,7 +21218,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A638" t="s">
         <v>1</v>
       </c>
@@ -21239,7 +21250,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A639" t="s">
         <v>1</v>
       </c>
@@ -21271,7 +21282,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A640" t="s">
         <v>1</v>
       </c>
@@ -21303,7 +21314,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A641" t="s">
         <v>1</v>
       </c>
@@ -21335,7 +21346,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A642" t="s">
         <v>1</v>
       </c>
@@ -21367,7 +21378,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A643" t="s">
         <v>1</v>
       </c>
@@ -21399,7 +21410,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A644" t="s">
         <v>1</v>
       </c>
@@ -21431,7 +21442,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A645" t="s">
         <v>1</v>
       </c>
@@ -21463,7 +21474,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A646" t="s">
         <v>1</v>
       </c>
@@ -21495,7 +21506,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A647" t="s">
         <v>1</v>
       </c>
@@ -21527,7 +21538,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A648" t="s">
         <v>1</v>
       </c>
@@ -21559,7 +21570,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A649" t="s">
         <v>1</v>
       </c>
@@ -21591,7 +21602,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A650" t="s">
         <v>1</v>
       </c>
@@ -21623,7 +21634,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A651" t="s">
         <v>1</v>
       </c>
@@ -21655,7 +21666,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A652" t="s">
         <v>1</v>
       </c>
@@ -21687,7 +21698,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A653" t="s">
         <v>1</v>
       </c>
@@ -21719,7 +21730,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A654" t="s">
         <v>1</v>
       </c>
@@ -21751,7 +21762,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A655" t="s">
         <v>1</v>
       </c>
@@ -21783,7 +21794,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A656" t="s">
         <v>1</v>
       </c>
@@ -21815,7 +21826,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A657" t="s">
         <v>1</v>
       </c>
@@ -21847,7 +21858,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="658" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A658" t="s">
         <v>1</v>
       </c>
@@ -21879,7 +21890,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="659" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A659" t="s">
         <v>1</v>
       </c>
@@ -21911,7 +21922,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A660" t="s">
         <v>1</v>
       </c>
@@ -21943,7 +21954,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A661" t="s">
         <v>1</v>
       </c>
@@ -21975,7 +21986,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="662" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A662" t="s">
         <v>1</v>
       </c>
@@ -22007,7 +22018,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="663" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A663" t="s">
         <v>1</v>
       </c>
@@ -22039,7 +22050,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="664" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A664" t="s">
         <v>1</v>
       </c>
@@ -22071,7 +22082,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A665" t="s">
         <v>1</v>
       </c>
@@ -22103,7 +22114,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A666" t="s">
         <v>1</v>
       </c>
@@ -22135,7 +22146,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A667" t="s">
         <v>1</v>
       </c>
@@ -22167,7 +22178,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="668" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A668" t="s">
         <v>1</v>
       </c>
@@ -22199,7 +22210,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="669" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A669" t="s">
         <v>1</v>
       </c>
@@ -22231,7 +22242,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A670" t="s">
         <v>1</v>
       </c>
@@ -22263,7 +22274,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A671" t="s">
         <v>1</v>
       </c>
@@ -22295,7 +22306,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="672" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A672" t="s">
         <v>1</v>
       </c>
@@ -22327,7 +22338,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="673" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A673" t="s">
         <v>1</v>
       </c>
@@ -22359,7 +22370,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="674" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A674" t="s">
         <v>1</v>
       </c>
@@ -22391,7 +22402,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="675" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A675" t="s">
         <v>1</v>
       </c>
@@ -22423,7 +22434,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="676" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A676" t="s">
         <v>1</v>
       </c>
@@ -22455,7 +22466,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="677" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A677" t="s">
         <v>1</v>
       </c>
@@ -22487,7 +22498,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="678" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A678" t="s">
         <v>1</v>
       </c>
@@ -22519,7 +22530,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="679" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A679" t="s">
         <v>1</v>
       </c>
@@ -22551,7 +22562,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="680" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A680" t="s">
         <v>1</v>
       </c>
@@ -22583,7 +22594,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="681" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A681" t="s">
         <v>1</v>
       </c>
@@ -22615,7 +22626,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="682" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A682" t="s">
         <v>1</v>
       </c>
@@ -22647,7 +22658,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="683" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A683" t="s">
         <v>1</v>
       </c>
@@ -22679,7 +22690,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="684" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A684" t="s">
         <v>1</v>
       </c>
@@ -22711,7 +22722,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="685" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A685" t="s">
         <v>1</v>
       </c>
@@ -22743,7 +22754,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="686" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A686" t="s">
         <v>1</v>
       </c>
@@ -22775,7 +22786,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="687" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A687" t="s">
         <v>1</v>
       </c>
@@ -22807,7 +22818,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="688" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A688" t="s">
         <v>1</v>
       </c>
@@ -22839,7 +22850,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="689" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A689" t="s">
         <v>1</v>
       </c>
@@ -22871,7 +22882,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="690" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A690" t="s">
         <v>1</v>
       </c>
@@ -22903,7 +22914,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="691" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A691" t="s">
         <v>1</v>
       </c>
@@ -22935,7 +22946,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="692" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A692" t="s">
         <v>1</v>
       </c>
@@ -22967,7 +22978,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="693" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A693" t="s">
         <v>1</v>
       </c>
@@ -22999,7 +23010,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="694" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A694" t="s">
         <v>1</v>
       </c>
@@ -23031,7 +23042,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="695" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A695" t="s">
         <v>1</v>
       </c>
@@ -23063,7 +23074,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="696" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A696" t="s">
         <v>1</v>
       </c>
@@ -23095,7 +23106,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="697" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A697" t="s">
         <v>1</v>
       </c>
@@ -23127,7 +23138,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="698" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A698" t="s">
         <v>1</v>
       </c>
@@ -23159,7 +23170,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="699" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A699" t="s">
         <v>1</v>
       </c>
@@ -23191,7 +23202,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="700" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A700" t="s">
         <v>1</v>
       </c>
@@ -23223,7 +23234,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="701" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A701" t="s">
         <v>1</v>
       </c>
@@ -23255,7 +23266,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="702" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A702" t="s">
         <v>1</v>
       </c>
@@ -23287,7 +23298,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="703" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A703" t="s">
         <v>1</v>
       </c>
@@ -23319,7 +23330,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="704" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A704" t="s">
         <v>1</v>
       </c>
@@ -23351,7 +23362,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="705" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A705" t="s">
         <v>1</v>
       </c>
@@ -23383,7 +23394,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="706" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A706" t="s">
         <v>1</v>
       </c>
@@ -23415,7 +23426,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="707" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A707" t="s">
         <v>1</v>
       </c>
@@ -23447,7 +23458,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="708" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A708" t="s">
         <v>1</v>
       </c>
@@ -23479,7 +23490,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="709" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A709" t="s">
         <v>1</v>
       </c>
@@ -23511,7 +23522,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="710" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A710" t="s">
         <v>1</v>
       </c>
@@ -23543,7 +23554,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="711" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A711" t="s">
         <v>1</v>
       </c>
@@ -23575,7 +23586,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="712" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A712" t="s">
         <v>1</v>
       </c>
@@ -23607,7 +23618,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="713" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A713" t="s">
         <v>1</v>
       </c>
@@ -23639,7 +23650,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="714" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A714" t="s">
         <v>1</v>
       </c>
@@ -23671,7 +23682,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="715" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A715" t="s">
         <v>1</v>
       </c>
@@ -23703,7 +23714,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="716" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A716" t="s">
         <v>1</v>
       </c>
@@ -23735,7 +23746,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="717" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A717" t="s">
         <v>1</v>
       </c>
@@ -23767,7 +23778,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="718" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A718" t="s">
         <v>1</v>
       </c>
@@ -23799,7 +23810,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="719" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A719" t="s">
         <v>1</v>
       </c>
@@ -23831,7 +23842,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="720" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A720" t="s">
         <v>1</v>
       </c>
@@ -23863,7 +23874,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="721" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A721" t="s">
         <v>1</v>
       </c>
@@ -23895,7 +23906,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="722" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A722" t="s">
         <v>1</v>
       </c>
@@ -23927,7 +23938,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="723" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A723" t="s">
         <v>1</v>
       </c>
@@ -23959,7 +23970,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="724" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A724" t="s">
         <v>1</v>
       </c>
@@ -23991,7 +24002,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="725" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A725" t="s">
         <v>1</v>
       </c>
@@ -24023,7 +24034,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="726" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A726" t="s">
         <v>1</v>
       </c>
@@ -24055,7 +24066,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="727" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A727" t="s">
         <v>1</v>
       </c>
@@ -24087,7 +24098,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="728" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A728" t="s">
         <v>1</v>
       </c>
@@ -24119,7 +24130,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="729" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A729" t="s">
         <v>1</v>
       </c>
@@ -24151,7 +24162,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="730" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A730" t="s">
         <v>1</v>
       </c>
@@ -24183,7 +24194,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="731" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A731" t="s">
         <v>1</v>
       </c>
@@ -24215,7 +24226,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="732" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A732" t="s">
         <v>1</v>
       </c>
@@ -24247,7 +24258,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="733" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A733" t="s">
         <v>1</v>
       </c>
@@ -24279,7 +24290,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="734" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A734" t="s">
         <v>1</v>
       </c>
@@ -24311,7 +24322,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="735" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A735" t="s">
         <v>1</v>
       </c>
@@ -24343,7 +24354,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="736" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A736" t="s">
         <v>1</v>
       </c>
@@ -24375,7 +24386,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="737" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A737" t="s">
         <v>1</v>
       </c>
@@ -24407,7 +24418,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="738" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A738" t="s">
         <v>1</v>
       </c>
@@ -24439,7 +24450,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="739" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A739" t="s">
         <v>1</v>
       </c>
@@ -24471,7 +24482,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="740" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A740" t="s">
         <v>1</v>
       </c>
@@ -24503,7 +24514,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="741" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A741" t="s">
         <v>1</v>
       </c>
@@ -24535,7 +24546,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="742" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A742" t="s">
         <v>1</v>
       </c>
@@ -24567,7 +24578,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="743" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A743" t="s">
         <v>1</v>
       </c>
@@ -24599,7 +24610,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="744" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A744" t="s">
         <v>1</v>
       </c>
@@ -24631,7 +24642,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="745" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A745" t="s">
         <v>1</v>
       </c>
@@ -24663,7 +24674,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="746" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A746" t="s">
         <v>1</v>
       </c>
@@ -24695,7 +24706,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="747" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A747" t="s">
         <v>1</v>
       </c>
@@ -24727,7 +24738,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="748" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A748" t="s">
         <v>1</v>
       </c>
@@ -24759,7 +24770,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="749" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A749" t="s">
         <v>1</v>
       </c>
@@ -24791,7 +24802,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="750" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A750" t="s">
         <v>1</v>
       </c>
@@ -24823,7 +24834,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="751" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A751" t="s">
         <v>1</v>
       </c>
@@ -24855,7 +24866,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="752" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A752" t="s">
         <v>1</v>
       </c>
@@ -24887,7 +24898,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="753" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A753" t="s">
         <v>1</v>
       </c>
@@ -24919,7 +24930,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="754" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A754" t="s">
         <v>1</v>
       </c>
@@ -24951,7 +24962,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="755" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A755" t="s">
         <v>1</v>
       </c>
@@ -24983,7 +24994,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="756" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A756" t="s">
         <v>1</v>
       </c>
@@ -25015,7 +25026,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="757" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A757" t="s">
         <v>1</v>
       </c>
@@ -25047,7 +25058,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="758" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A758" t="s">
         <v>1</v>
       </c>
@@ -25079,7 +25090,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="759" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A759" t="s">
         <v>1</v>
       </c>
@@ -25111,7 +25122,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="760" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A760" t="s">
         <v>1</v>
       </c>
@@ -25143,7 +25154,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="761" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A761" t="s">
         <v>1</v>
       </c>
@@ -25175,7 +25186,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="762" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A762" t="s">
         <v>1</v>
       </c>
@@ -25207,7 +25218,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="763" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A763" t="s">
         <v>1</v>
       </c>
@@ -25239,7 +25250,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="764" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A764" t="s">
         <v>1</v>
       </c>
@@ -25271,7 +25282,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="765" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A765" t="s">
         <v>1</v>
       </c>
@@ -25303,7 +25314,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="766" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A766" t="s">
         <v>1</v>
       </c>
@@ -25335,7 +25346,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="767" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A767" t="s">
         <v>1</v>
       </c>
@@ -25367,7 +25378,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="768" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A768" t="s">
         <v>1</v>
       </c>
@@ -25399,7 +25410,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="769" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A769" t="s">
         <v>1</v>
       </c>
@@ -25431,7 +25442,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="770" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A770" t="s">
         <v>1</v>
       </c>
@@ -25463,7 +25474,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="771" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A771" t="s">
         <v>1</v>
       </c>
@@ -25495,7 +25506,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="772" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A772" t="s">
         <v>1</v>
       </c>
@@ -25527,7 +25538,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="773" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A773" t="s">
         <v>1</v>
       </c>
@@ -25559,7 +25570,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="774" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A774" t="s">
         <v>1</v>
       </c>
@@ -25591,7 +25602,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="775" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A775" t="s">
         <v>1</v>
       </c>
@@ -25623,7 +25634,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="776" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A776" t="s">
         <v>1</v>
       </c>
@@ -25655,7 +25666,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="777" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A777" t="s">
         <v>1</v>
       </c>
@@ -25687,7 +25698,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="778" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A778" t="s">
         <v>1</v>
       </c>
@@ -25719,7 +25730,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="779" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A779" t="s">
         <v>1</v>
       </c>
@@ -25751,7 +25762,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="780" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A780" t="s">
         <v>1</v>
       </c>
@@ -25783,7 +25794,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="781" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A781" t="s">
         <v>1</v>
       </c>
@@ -25815,7 +25826,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="782" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A782" t="s">
         <v>1</v>
       </c>
@@ -25847,7 +25858,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="783" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A783" t="s">
         <v>1</v>
       </c>
@@ -25876,7 +25887,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="784" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A784" t="s">
         <v>1</v>
       </c>
@@ -25908,7 +25919,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="785" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A785" t="s">
         <v>1</v>
       </c>
@@ -25940,7 +25951,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="786" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A786" t="s">
         <v>1</v>
       </c>
@@ -25972,7 +25983,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="787" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A787" t="s">
         <v>1</v>
       </c>
@@ -26004,7 +26015,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="788" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A788" t="s">
         <v>1</v>
       </c>
@@ -26036,7 +26047,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="789" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A789" t="s">
         <v>1</v>
       </c>
@@ -26068,7 +26079,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="790" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A790" t="s">
         <v>1</v>
       </c>
@@ -26100,7 +26111,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="791" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A791" t="s">
         <v>1</v>
       </c>
@@ -26132,7 +26143,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="792" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A792" t="s">
         <v>1</v>
       </c>
@@ -26164,7 +26175,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="793" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A793" t="s">
         <v>1</v>
       </c>
@@ -26196,7 +26207,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="794" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A794" t="s">
         <v>1</v>
       </c>
@@ -26228,7 +26239,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="795" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A795" t="s">
         <v>1</v>
       </c>
@@ -26260,7 +26271,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="796" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A796" t="s">
         <v>1</v>
       </c>
@@ -26292,7 +26303,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="797" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A797" t="s">
         <v>1</v>
       </c>
@@ -26324,7 +26335,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="798" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A798" t="s">
         <v>1</v>
       </c>
@@ -26356,7 +26367,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="799" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A799" t="s">
         <v>1</v>
       </c>
@@ -26388,7 +26399,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="800" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A800" t="s">
         <v>1</v>
       </c>
@@ -26420,7 +26431,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="801" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A801" t="s">
         <v>1</v>
       </c>
@@ -26452,7 +26463,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="802" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A802" t="s">
         <v>1</v>
       </c>
@@ -26484,7 +26495,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="803" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A803" t="s">
         <v>1</v>
       </c>
@@ -26516,7 +26527,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="804" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A804" t="s">
         <v>1</v>
       </c>
@@ -26548,7 +26559,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="805" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A805" t="s">
         <v>1</v>
       </c>
@@ -26580,7 +26591,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="806" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A806" t="s">
         <v>1</v>
       </c>
@@ -26612,7 +26623,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="807" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A807" t="s">
         <v>1</v>
       </c>
@@ -26644,7 +26655,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="808" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A808" t="s">
         <v>1</v>
       </c>
@@ -26676,7 +26687,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="809" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A809" t="s">
         <v>1</v>
       </c>
@@ -26708,7 +26719,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="810" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A810" t="s">
         <v>1</v>
       </c>
@@ -26740,7 +26751,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="811" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A811" t="s">
         <v>1</v>
       </c>
@@ -26772,7 +26783,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="812" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A812" t="s">
         <v>1</v>
       </c>
@@ -26804,7 +26815,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="813" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A813" t="s">
         <v>1</v>
       </c>
@@ -26836,7 +26847,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="814" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A814" t="s">
         <v>1</v>
       </c>
@@ -26868,7 +26879,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="815" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A815" t="s">
         <v>1</v>
       </c>
@@ -26900,7 +26911,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="816" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A816" t="s">
         <v>1</v>
       </c>
@@ -26932,7 +26943,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="817" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A817" t="s">
         <v>1</v>
       </c>
@@ -26964,7 +26975,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="818" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A818" t="s">
         <v>1</v>
       </c>
@@ -26993,7 +27004,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="819" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A819" t="s">
         <v>1</v>
       </c>
@@ -27025,7 +27036,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="820" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A820" t="s">
         <v>1</v>
       </c>
@@ -27057,7 +27068,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="821" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A821" t="s">
         <v>1</v>
       </c>
@@ -27089,7 +27100,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="822" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A822" t="s">
         <v>1</v>
       </c>
@@ -27121,7 +27132,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="823" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A823" t="s">
         <v>1</v>
       </c>
@@ -27153,7 +27164,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="824" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A824" t="s">
         <v>1</v>
       </c>
@@ -27185,7 +27196,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="825" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A825" t="s">
         <v>1</v>
       </c>
@@ -27217,7 +27228,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="826" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A826" t="s">
         <v>1</v>
       </c>
@@ -27249,7 +27260,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="827" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A827" t="s">
         <v>1</v>
       </c>
@@ -27281,7 +27292,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="828" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A828" t="s">
         <v>1</v>
       </c>
@@ -27313,7 +27324,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="829" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A829" t="s">
         <v>1</v>
       </c>
@@ -27345,7 +27356,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="830" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A830" t="s">
         <v>1</v>
       </c>
@@ -27377,7 +27388,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="831" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A831" t="s">
         <v>1</v>
       </c>
@@ -27409,7 +27420,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="832" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A832" t="s">
         <v>1</v>
       </c>
@@ -27441,7 +27452,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="833" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A833" t="s">
         <v>1</v>
       </c>
@@ -27473,7 +27484,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="834" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A834" t="s">
         <v>1</v>
       </c>
@@ -27505,7 +27516,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="835" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A835" t="s">
         <v>1</v>
       </c>
@@ -27537,7 +27548,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="836" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A836" t="s">
         <v>1</v>
       </c>
@@ -27569,7 +27580,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="837" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A837" t="s">
         <v>1</v>
       </c>
@@ -27601,7 +27612,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="838" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A838" t="s">
         <v>1</v>
       </c>
@@ -27633,7 +27644,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="839" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A839" t="s">
         <v>1</v>
       </c>
@@ -27665,7 +27676,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="840" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A840" t="s">
         <v>1</v>
       </c>
@@ -27697,7 +27708,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="841" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A841" t="s">
         <v>1</v>
       </c>
@@ -27729,7 +27740,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="842" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A842" t="s">
         <v>1</v>
       </c>
@@ -27761,7 +27772,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="843" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A843" t="s">
         <v>1</v>
       </c>
@@ -27793,7 +27804,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="844" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A844" t="s">
         <v>1</v>
       </c>
@@ -27825,7 +27836,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="845" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A845" t="s">
         <v>1</v>
       </c>
@@ -27857,7 +27868,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="846" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A846" t="s">
         <v>1</v>
       </c>
@@ -27889,7 +27900,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="847" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A847" t="s">
         <v>1</v>
       </c>
@@ -27921,7 +27932,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="848" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A848" t="s">
         <v>1</v>
       </c>
@@ -27953,7 +27964,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="849" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A849" t="s">
         <v>1</v>
       </c>
@@ -27985,7 +27996,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="850" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A850" t="s">
         <v>1</v>
       </c>
@@ -28017,7 +28028,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="851" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A851" t="s">
         <v>1</v>
       </c>
